--- a/Presence_absence_vegetation_AC_Danielsen.xlsx
+++ b/Presence_absence_vegetation_AC_Danielsen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au568758_uni_au_dk/Documents/Documents/1 Paper #1/Paper-1-Bacteria-and-vegetation-in-grassland-and-heathland/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au568758_uni_au_dk/Documents/Documents/1 Paper #1/Paper-1-Bacteria-and-vegetation-in-grassland-and-heathland/Excel ark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D225E33F-01BD-4CC5-B0B4-BBFCB0FCE84B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D225E33F-01BD-4CC5-B0B4-BBFCB0FCE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41247AF-8A7F-42DA-8F1E-7A8D65B62EC4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CED36AF-B606-4BDB-8F20-5A32C9AF2D9F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="219">
   <si>
     <t>Plot</t>
   </si>
@@ -103,15 +103,6 @@
   </si>
   <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
   </si>
   <si>
     <t>C7</t>
@@ -802,8 +793,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B229D923-E606-4FB8-B709-E6417F4D3A8D}" name="Tabel2" displayName="Tabel2" ref="A1:FF56" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:FF56" xr:uid="{E77742B8-CF87-447B-9A94-199A33E0BDC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B229D923-E606-4FB8-B709-E6417F4D3A8D}" name="Tabel2" displayName="Tabel2" ref="A1:FF53" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:FF53" xr:uid="{E77742B8-CF87-447B-9A94-199A33E0BDC5}"/>
   <tableColumns count="162">
     <tableColumn id="1" xr3:uid="{FA64EBDA-F5D2-4A26-A46C-343A05633C62}" name="Plot"/>
     <tableColumn id="2" xr3:uid="{6A932CBF-38F4-4CDD-9D3A-52C6DA5A9606}" name="Ager-padderok, Equisetum arvense"/>
@@ -1269,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604EA018-621F-48A4-B608-A5F3602B3E23}">
-  <dimension ref="A1:FF56"/>
+  <dimension ref="A1:FF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,487 +1435,487 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BQ1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BT1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="BU1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BT1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="CN1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CQ1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="CQ1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CU1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DM1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="DK1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="DM1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DP1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="DP1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="DR1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="DX1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DY1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="DZ1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="EA1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="DY1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="DZ1" s="3" t="s">
+      <c r="EC1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="ED1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="ES1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="FA1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FD1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FE1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="FD1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="FE1" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="FF1" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.35">
@@ -12689,13 +12680,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -12704,16 +12695,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -12740,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -12773,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -12782,13 +12773,13 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -12809,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -12821,10 +12812,10 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -12839,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="BG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24">
         <v>0</v>
@@ -12848,10 +12839,10 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24">
         <v>0</v>
@@ -12869,10 +12860,10 @@
         <v>0</v>
       </c>
       <c r="BQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24">
         <v>0</v>
@@ -12896,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="BZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA24">
         <v>0</v>
@@ -12941,16 +12932,16 @@
         <v>0</v>
       </c>
       <c r="CO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP24">
         <v>0</v>
       </c>
       <c r="CQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS24">
         <v>0</v>
@@ -12968,13 +12959,13 @@
         <v>0</v>
       </c>
       <c r="CX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY24">
         <v>0</v>
       </c>
       <c r="CZ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA24">
         <v>0</v>
@@ -13013,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="DM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN24">
         <v>0</v>
@@ -13022,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="DP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ24">
         <v>0</v>
@@ -13043,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="DW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX24">
         <v>0</v>
@@ -13052,13 +13043,13 @@
         <v>0</v>
       </c>
       <c r="DZ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA24">
         <v>0</v>
       </c>
       <c r="EB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC24">
         <v>0</v>
@@ -13100,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="EP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ24">
         <v>0</v>
@@ -13133,10 +13124,10 @@
         <v>0</v>
       </c>
       <c r="FA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC24">
         <v>0</v>
@@ -13168,13 +13159,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -13183,22 +13174,22 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -13228,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -13261,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -13270,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -13297,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -13309,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -13327,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="BG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25">
         <v>0</v>
@@ -13336,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25">
         <v>0</v>
@@ -13357,10 +13348,10 @@
         <v>0</v>
       </c>
       <c r="BQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25">
         <v>0</v>
@@ -13390,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="CB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC25">
         <v>0</v>
@@ -13402,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="CF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG25">
         <v>0</v>
@@ -13435,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="CQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR25">
         <v>0</v>
@@ -13462,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="CZ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA25">
         <v>0</v>
@@ -13501,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="DM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN25">
         <v>0</v>
@@ -13510,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="DP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ25">
         <v>0</v>
@@ -13531,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="DW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX25">
         <v>0</v>
@@ -13540,13 +13531,13 @@
         <v>0</v>
       </c>
       <c r="DZ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA25">
         <v>0</v>
       </c>
       <c r="EB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC25">
         <v>0</v>
@@ -13588,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="EP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ25">
         <v>0</v>
@@ -13621,10 +13612,10 @@
         <v>0</v>
       </c>
       <c r="FA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC25">
         <v>0</v>
@@ -13671,25 +13662,25 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -13707,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -13758,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -13785,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -13797,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26">
         <v>0</v>
@@ -13815,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26">
         <v>0</v>
@@ -13836,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26">
         <v>0</v>
@@ -13848,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS26">
         <v>0</v>
@@ -13872,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="BZ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA26">
         <v>0</v>
@@ -13917,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="CO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP26">
         <v>0</v>
@@ -13989,16 +13980,16 @@
         <v>0</v>
       </c>
       <c r="DM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN26">
         <v>0</v>
       </c>
       <c r="DO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ26">
         <v>0</v>
@@ -14019,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="DW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX26">
         <v>0</v>
@@ -14034,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="EB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC26">
         <v>0</v>
@@ -14052,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="EH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI26">
         <v>0</v>
@@ -14076,13 +14067,13 @@
         <v>0</v>
       </c>
       <c r="EP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES26">
         <v>0</v>
@@ -14109,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="FA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB26">
         <v>0</v>
@@ -14162,22 +14153,22 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -14186,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -14195,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -14210,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -14228,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -14237,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -14252,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -14267,13 +14258,13 @@
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27">
         <v>0</v>
       </c>
       <c r="AW27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -14282,10 +14273,10 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27">
         <v>1</v>
@@ -14306,13 +14297,13 @@
         <v>0</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI27">
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK27">
         <v>0</v>
@@ -14327,13 +14318,13 @@
         <v>0</v>
       </c>
       <c r="BO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP27">
         <v>0</v>
       </c>
       <c r="BQ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR27">
         <v>1</v>
@@ -14360,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="BZ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA27">
         <v>0</v>
@@ -14384,13 +14375,13 @@
         <v>0</v>
       </c>
       <c r="CH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI27">
         <v>0</v>
       </c>
       <c r="CJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK27">
         <v>0</v>
@@ -14405,16 +14396,16 @@
         <v>0</v>
       </c>
       <c r="CO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP27">
         <v>0</v>
       </c>
       <c r="CQ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS27">
         <v>0</v>
@@ -14432,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="CX27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY27">
         <v>0</v>
@@ -14456,13 +14447,13 @@
         <v>0</v>
       </c>
       <c r="DF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG27">
         <v>0</v>
       </c>
       <c r="DH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI27">
         <v>0</v>
@@ -14477,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="DM27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN27">
         <v>0</v>
@@ -14486,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="DP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ27">
         <v>0</v>
@@ -14507,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="DW27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX27">
         <v>0</v>
@@ -14522,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="EB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC27">
         <v>0</v>
@@ -14531,7 +14522,7 @@
         <v>0</v>
       </c>
       <c r="EE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF27">
         <v>0</v>
@@ -14552,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="EL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM27">
         <v>0</v>
@@ -14564,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="EP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ27">
         <v>0</v>
@@ -14600,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="FB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC27">
         <v>0</v>
@@ -14632,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -14653,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -14662,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -14674,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -14683,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -14704,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -14716,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -14725,13 +14716,13 @@
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -14752,16 +14743,16 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28">
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -14770,10 +14761,10 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -14800,13 +14791,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK28">
         <v>0</v>
       </c>
       <c r="BL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM28">
         <v>0</v>
@@ -14815,13 +14806,13 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>0</v>
       </c>
       <c r="BQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR28">
         <v>1</v>
@@ -14854,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="CB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC28">
         <v>0</v>
@@ -14866,22 +14857,22 @@
         <v>0</v>
       </c>
       <c r="CF28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG28">
         <v>0</v>
       </c>
       <c r="CH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI28">
         <v>0</v>
       </c>
       <c r="CJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL28">
         <v>0</v>
@@ -14899,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="CQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR28">
         <v>0</v>
@@ -14926,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="CZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA28">
         <v>0</v>
@@ -14944,13 +14935,13 @@
         <v>0</v>
       </c>
       <c r="DF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG28">
         <v>0</v>
       </c>
       <c r="DH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI28">
         <v>0</v>
@@ -14965,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="DM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN28">
         <v>0</v>
@@ -14974,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="DP28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ28">
         <v>0</v>
@@ -14995,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="DW28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX28">
         <v>0</v>
@@ -15010,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="EB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC28">
         <v>0</v>
@@ -15019,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="EE28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF28">
         <v>0</v>
@@ -15052,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="EP28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ28">
         <v>0</v>
@@ -15088,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="FB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC28">
         <v>0</v>
@@ -15135,22 +15126,22 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -15171,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -15234,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -15249,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="AW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -15261,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -15288,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK29">
         <v>0</v>
@@ -15312,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29">
         <v>0</v>
@@ -15327,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="BW29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX29">
         <v>0</v>
@@ -15336,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="BZ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29">
         <v>0</v>
@@ -15378,10 +15369,10 @@
         <v>0</v>
       </c>
       <c r="CN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP29">
         <v>0</v>
@@ -15408,13 +15399,13 @@
         <v>0</v>
       </c>
       <c r="CX29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY29">
         <v>0</v>
       </c>
       <c r="CZ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA29">
         <v>0</v>
@@ -15453,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="DM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN29">
         <v>0</v>
@@ -15462,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="DP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ29">
         <v>0</v>
@@ -15474,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="DT29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU29">
         <v>0</v>
@@ -15483,7 +15474,7 @@
         <v>0</v>
       </c>
       <c r="DW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX29">
         <v>0</v>
@@ -15492,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="DZ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA29">
         <v>0</v>
@@ -15507,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="EE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF29">
         <v>0</v>
@@ -15516,7 +15507,7 @@
         <v>0</v>
       </c>
       <c r="EH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI29">
         <v>0</v>
@@ -15540,10 +15531,10 @@
         <v>0</v>
       </c>
       <c r="EP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER29">
         <v>0</v>
@@ -15623,10 +15614,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -15650,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -15674,10 +15665,10 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -15692,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -15704,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -15722,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -15731,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30">
         <v>0</v>
@@ -15746,13 +15737,13 @@
         <v>0</v>
       </c>
       <c r="AZ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30">
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -15770,13 +15761,13 @@
         <v>0</v>
       </c>
       <c r="BH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30">
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK30">
         <v>0</v>
@@ -15791,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="BO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30">
         <v>0</v>
@@ -15800,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30">
         <v>0</v>
@@ -15815,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="BW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -15848,13 +15839,13 @@
         <v>0</v>
       </c>
       <c r="CH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI30">
         <v>0</v>
       </c>
       <c r="CJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK30">
         <v>0</v>
@@ -15866,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="CN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO30">
         <v>0</v>
@@ -15920,13 +15911,13 @@
         <v>0</v>
       </c>
       <c r="DF30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG30">
         <v>0</v>
       </c>
       <c r="DH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI30">
         <v>0</v>
@@ -15962,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="DT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU30">
         <v>0</v>
@@ -15986,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="EB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC30">
         <v>0</v>
@@ -15995,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="EE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF30">
         <v>0</v>
@@ -16016,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="EL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM30">
         <v>0</v>
@@ -16052,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="EX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY30">
         <v>0</v>
@@ -16111,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -16138,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -16168,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -16180,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -16192,10 +16183,10 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -16210,19 +16201,19 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31">
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -16234,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -16264,13 +16255,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK31">
         <v>0</v>
       </c>
       <c r="BL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -16279,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="BO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -16288,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS31">
         <v>0</v>
@@ -16303,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="BW31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX31">
         <v>0</v>
@@ -16336,16 +16327,16 @@
         <v>0</v>
       </c>
       <c r="CH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI31">
         <v>0</v>
       </c>
       <c r="CJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL31">
         <v>0</v>
@@ -16354,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="CN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO31">
         <v>0</v>
@@ -16384,13 +16375,13 @@
         <v>0</v>
       </c>
       <c r="CX31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY31">
         <v>0</v>
       </c>
       <c r="CZ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA31">
         <v>0</v>
@@ -16408,13 +16399,13 @@
         <v>0</v>
       </c>
       <c r="DF31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG31">
         <v>0</v>
       </c>
       <c r="DH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI31">
         <v>0</v>
@@ -16450,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="DT31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU31">
         <v>0</v>
@@ -16474,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="EB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC31">
         <v>0</v>
@@ -16540,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="EX31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY31">
         <v>0</v>
@@ -16842,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="CN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO32">
         <v>0</v>
@@ -16884,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="DB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC32">
         <v>0</v>
@@ -16893,13 +16884,13 @@
         <v>0</v>
       </c>
       <c r="DE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF32">
         <v>0</v>
       </c>
       <c r="DG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH32">
         <v>0</v>
@@ -16929,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="DQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR32">
         <v>0</v>
@@ -16938,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="DT32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU32">
         <v>0</v>
@@ -16950,13 +16941,13 @@
         <v>0</v>
       </c>
       <c r="DX32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY32">
         <v>0</v>
       </c>
       <c r="DZ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA32">
         <v>0</v>
@@ -16971,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="EE32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF32">
         <v>0</v>
@@ -17069,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -17168,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -17267,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT33">
         <v>0</v>
@@ -17330,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="CN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO33">
         <v>0</v>
@@ -17372,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="DB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC33">
         <v>0</v>
@@ -17417,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="DQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR33">
         <v>0</v>
@@ -17426,7 +17417,7 @@
         <v>0</v>
       </c>
       <c r="DT33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU33">
         <v>0</v>
@@ -17557,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -17656,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -17686,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34">
         <v>0</v>
@@ -17755,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT34">
         <v>0</v>
@@ -17818,7 +17809,7 @@
         <v>0</v>
       </c>
       <c r="CN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO34">
         <v>0</v>
@@ -17860,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="DB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC34">
         <v>0</v>
@@ -17875,7 +17866,7 @@
         <v>0</v>
       </c>
       <c r="DG34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH34">
         <v>0</v>
@@ -17905,7 +17896,7 @@
         <v>0</v>
       </c>
       <c r="DQ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR34">
         <v>0</v>
@@ -17914,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="DT34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU34">
         <v>0</v>
@@ -17947,7 +17938,7 @@
         <v>0</v>
       </c>
       <c r="EE34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF34">
         <v>0</v>
@@ -18004,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="EX34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY34">
         <v>0</v>
@@ -18063,19 +18054,19 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -18135,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -18153,7 +18144,7 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -18192,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35">
         <v>0</v>
@@ -18216,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK35">
         <v>0</v>
@@ -18243,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT35">
         <v>0</v>
@@ -18288,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="CH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI35">
         <v>0</v>
@@ -18324,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="CT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU35">
         <v>0</v>
@@ -18336,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="CX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY35">
         <v>0</v>
@@ -18357,13 +18348,13 @@
         <v>0</v>
       </c>
       <c r="DE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35">
         <v>0</v>
       </c>
       <c r="DG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH35">
         <v>0</v>
@@ -18411,10 +18402,10 @@
         <v>0</v>
       </c>
       <c r="DW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY35">
         <v>0</v>
@@ -18435,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="EE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF35">
         <v>0</v>
@@ -18444,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="EH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI35">
         <v>0</v>
@@ -18462,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="EN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO35">
         <v>0</v>
@@ -18483,13 +18474,13 @@
         <v>0</v>
       </c>
       <c r="EU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX35">
         <v>0</v>
@@ -18533,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -18554,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -18563,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -18572,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -18587,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -18623,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -18635,13 +18626,13 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36">
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -18650,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -18671,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -18680,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC36">
         <v>0</v>
@@ -18704,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK36">
         <v>0</v>
@@ -18713,7 +18704,7 @@
         <v>0</v>
       </c>
       <c r="BM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN36">
         <v>0</v>
@@ -18776,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="CH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI36">
         <v>0</v>
@@ -18812,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="CT36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU36">
         <v>0</v>
@@ -18824,13 +18815,13 @@
         <v>0</v>
       </c>
       <c r="CX36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY36">
         <v>0</v>
       </c>
       <c r="CZ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA36">
         <v>0</v>
@@ -18842,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="DD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE36">
         <v>0</v>
@@ -18884,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="DR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS36">
         <v>0</v>
@@ -18899,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="DW36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX36">
         <v>0</v>
@@ -18908,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="DZ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA36">
         <v>0</v>
@@ -18932,7 +18923,7 @@
         <v>0</v>
       </c>
       <c r="EH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI36">
         <v>0</v>
@@ -18950,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="EN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO36">
         <v>0</v>
@@ -18980,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="EX36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY36">
         <v>0</v>
@@ -19021,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -19081,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -19129,7 +19120,7 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -19138,13 +19129,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37">
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -19174,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE37">
         <v>0</v>
@@ -19183,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="BG37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH37">
         <v>0</v>
@@ -19204,7 +19195,7 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37">
         <v>0</v>
@@ -19219,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT37">
         <v>0</v>
@@ -19237,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="BY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ37">
         <v>0</v>
@@ -19249,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="CC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD37">
         <v>0</v>
@@ -19267,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="CI37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ37">
         <v>0</v>
@@ -19282,13 +19273,13 @@
         <v>0</v>
       </c>
       <c r="CN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO37">
         <v>0</v>
       </c>
       <c r="CP37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ37">
         <v>0</v>
@@ -19330,16 +19321,16 @@
         <v>0</v>
       </c>
       <c r="DD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF37">
         <v>0</v>
       </c>
       <c r="DG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH37">
         <v>0</v>
@@ -19348,13 +19339,13 @@
         <v>0</v>
       </c>
       <c r="DJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM37">
         <v>0</v>
@@ -19369,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="DQ37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR37">
         <v>0</v>
@@ -19378,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="DT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU37">
         <v>0</v>
@@ -19411,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="EE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF37">
         <v>0</v>
@@ -19435,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="EM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN37">
         <v>0</v>
@@ -19459,10 +19450,10 @@
         <v>0</v>
       </c>
       <c r="EU37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW37">
         <v>0</v>
@@ -19471,13 +19462,13 @@
         <v>0</v>
       </c>
       <c r="EY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ37">
         <v>0</v>
       </c>
       <c r="FA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB37">
         <v>0</v>
@@ -19492,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="FF37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:162" x14ac:dyDescent="0.35">
@@ -19527,19 +19518,19 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -19569,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -19599,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
         <v>0</v>
@@ -19656,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38">
         <v>0</v>
@@ -19665,13 +19656,13 @@
         <v>0</v>
       </c>
       <c r="BE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF38">
         <v>0</v>
       </c>
       <c r="BG38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH38">
         <v>0</v>
@@ -19692,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38">
         <v>0</v>
@@ -19707,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT38">
         <v>0</v>
@@ -19725,7 +19716,7 @@
         <v>0</v>
       </c>
       <c r="BY38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ38">
         <v>0</v>
@@ -19752,16 +19743,16 @@
         <v>0</v>
       </c>
       <c r="CH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ38">
         <v>0</v>
       </c>
       <c r="CK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL38">
         <v>0</v>
@@ -19770,13 +19761,13 @@
         <v>0</v>
       </c>
       <c r="CN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO38">
         <v>0</v>
       </c>
       <c r="CP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ38">
         <v>0</v>
@@ -19788,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="CT38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU38">
         <v>0</v>
@@ -19800,7 +19791,7 @@
         <v>0</v>
       </c>
       <c r="CX38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY38">
         <v>0</v>
@@ -19812,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="DB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC38">
         <v>0</v>
@@ -19821,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="DE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF38">
         <v>0</v>
@@ -19836,13 +19827,13 @@
         <v>0</v>
       </c>
       <c r="DJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM38">
         <v>0</v>
@@ -19857,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="DQ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR38">
         <v>0</v>
@@ -19866,7 +19857,7 @@
         <v>0</v>
       </c>
       <c r="DT38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU38">
         <v>0</v>
@@ -19884,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="DZ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA38">
         <v>0</v>
@@ -19908,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="EH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI38">
         <v>0</v>
@@ -19926,10 +19917,10 @@
         <v>0</v>
       </c>
       <c r="EN38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP38">
         <v>0</v>
@@ -19953,7 +19944,7 @@
         <v>1</v>
       </c>
       <c r="EW38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX38">
         <v>0</v>
@@ -19965,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="FA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB38">
         <v>0</v>
@@ -19974,13 +19965,13 @@
         <v>0</v>
       </c>
       <c r="FD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE38">
         <v>0</v>
       </c>
       <c r="FF38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:162" x14ac:dyDescent="0.35">
@@ -20018,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -20027,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -20036,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -20051,13 +20042,13 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -20087,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
         <v>0</v>
@@ -20099,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -20114,13 +20105,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -20135,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="AY39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -20144,7 +20135,7 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39">
         <v>0</v>
@@ -20159,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="BG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH39">
         <v>0</v>
@@ -20177,10 +20168,10 @@
         <v>0</v>
       </c>
       <c r="BM39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39">
         <v>0</v>
@@ -20195,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT39">
         <v>0</v>
@@ -20213,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="BY39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ39">
         <v>0</v>
@@ -20225,7 +20216,7 @@
         <v>0</v>
       </c>
       <c r="CC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD39">
         <v>0</v>
@@ -20240,16 +20231,16 @@
         <v>0</v>
       </c>
       <c r="CH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ39">
         <v>0</v>
       </c>
       <c r="CK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL39">
         <v>0</v>
@@ -20258,13 +20249,13 @@
         <v>0</v>
       </c>
       <c r="CN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO39">
         <v>0</v>
       </c>
       <c r="CP39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ39">
         <v>0</v>
@@ -20276,37 +20267,37 @@
         <v>0</v>
       </c>
       <c r="CT39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU39">
         <v>0</v>
       </c>
       <c r="CV39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW39">
         <v>0</v>
       </c>
       <c r="CX39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY39">
         <v>0</v>
       </c>
       <c r="CZ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA39">
         <v>0</v>
       </c>
       <c r="DB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC39">
         <v>0</v>
       </c>
       <c r="DD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE39">
         <v>0</v>
@@ -20324,10 +20315,10 @@
         <v>0</v>
       </c>
       <c r="DJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL39">
         <v>0</v>
@@ -20345,16 +20336,16 @@
         <v>0</v>
       </c>
       <c r="DQ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS39">
         <v>0</v>
       </c>
       <c r="DT39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU39">
         <v>0</v>
@@ -20363,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="DW39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX39">
         <v>0</v>
@@ -20372,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="DZ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA39">
         <v>0</v>
@@ -20387,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="EE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF39">
         <v>0</v>
@@ -20396,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="EH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI39">
         <v>0</v>
@@ -20414,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="EN39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO39">
         <v>0</v>
@@ -20435,10 +20426,10 @@
         <v>0</v>
       </c>
       <c r="EU39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW39">
         <v>0</v>
@@ -20453,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="FA39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB39">
         <v>0</v>
@@ -20468,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="FF39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:162" x14ac:dyDescent="0.35">
@@ -20545,7 +20536,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -20566,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
         <v>0</v>
@@ -20608,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -20638,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="BD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40">
         <v>0</v>
@@ -20647,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="BG40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40">
         <v>0</v>
@@ -20668,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO40">
         <v>0</v>
@@ -20701,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="BY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ40">
         <v>0</v>
@@ -20713,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="CC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD40">
         <v>0</v>
@@ -20731,13 +20722,13 @@
         <v>0</v>
       </c>
       <c r="CI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ40">
         <v>0</v>
       </c>
       <c r="CK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL40">
         <v>0</v>
@@ -20752,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="CP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ40">
         <v>0</v>
@@ -20773,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="CW40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX40">
         <v>0</v>
@@ -20788,16 +20779,16 @@
         <v>0</v>
       </c>
       <c r="DB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC40">
         <v>0</v>
       </c>
       <c r="DD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40">
         <v>0</v>
@@ -20812,13 +20803,13 @@
         <v>0</v>
       </c>
       <c r="DJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM40">
         <v>0</v>
@@ -20845,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="DU40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV40">
         <v>0</v>
@@ -20854,7 +20845,7 @@
         <v>0</v>
       </c>
       <c r="DX40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY40">
         <v>0</v>
@@ -20875,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="EE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF40">
         <v>0</v>
@@ -20899,7 +20890,7 @@
         <v>0</v>
       </c>
       <c r="EM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN40">
         <v>0</v>
@@ -20923,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="EU40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV40">
         <v>1</v>
@@ -20932,16 +20923,16 @@
         <v>0</v>
       </c>
       <c r="EX40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ40">
         <v>0</v>
       </c>
       <c r="FA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB40">
         <v>0</v>
@@ -20956,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="FF40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:162" x14ac:dyDescent="0.35">
@@ -21033,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -21054,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41">
         <v>0</v>
@@ -21090,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41">
         <v>0</v>
@@ -21129,13 +21120,13 @@
         <v>0</v>
       </c>
       <c r="BE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41">
         <v>0</v>
       </c>
       <c r="BG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH41">
         <v>0</v>
@@ -21144,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41">
         <v>0</v>
@@ -21156,7 +21147,7 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO41">
         <v>0</v>
@@ -21189,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="BY41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ41">
         <v>0</v>
@@ -21219,13 +21210,13 @@
         <v>0</v>
       </c>
       <c r="CI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ41">
         <v>0</v>
       </c>
       <c r="CK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL41">
         <v>0</v>
@@ -21240,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="CP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ41">
         <v>0</v>
@@ -21285,7 +21276,7 @@
         <v>0</v>
       </c>
       <c r="DE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF41">
         <v>0</v>
@@ -21300,13 +21291,13 @@
         <v>0</v>
       </c>
       <c r="DJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM41">
         <v>0</v>
@@ -21339,10 +21330,10 @@
         <v>0</v>
       </c>
       <c r="DW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY41">
         <v>0</v>
@@ -21363,7 +21354,7 @@
         <v>0</v>
       </c>
       <c r="EE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF41">
         <v>0</v>
@@ -21393,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="EO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP41">
         <v>0</v>
@@ -21411,7 +21402,7 @@
         <v>0</v>
       </c>
       <c r="EU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV41">
         <v>1</v>
@@ -21420,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="EX41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY41">
         <v>0</v>
@@ -21429,7 +21420,7 @@
         <v>0</v>
       </c>
       <c r="FA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB41">
         <v>0</v>
@@ -21438,13 +21429,13 @@
         <v>0</v>
       </c>
       <c r="FD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE41">
         <v>0</v>
       </c>
       <c r="FF41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:162" x14ac:dyDescent="0.35">
@@ -21500,7 +21491,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -21521,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -21581,10 +21572,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -21623,7 +21614,7 @@
         <v>0</v>
       </c>
       <c r="BG42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH42">
         <v>0</v>
@@ -21632,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK42">
         <v>0</v>
@@ -21644,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO42">
         <v>0</v>
@@ -21677,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="BY42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ42">
         <v>0</v>
@@ -21689,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="CC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD42">
         <v>0</v>
@@ -21707,13 +21698,13 @@
         <v>0</v>
       </c>
       <c r="CI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ42">
         <v>0</v>
       </c>
       <c r="CK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL42">
         <v>0</v>
@@ -21728,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="CP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ42">
         <v>0</v>
@@ -21746,7 +21737,7 @@
         <v>0</v>
       </c>
       <c r="CV42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW42">
         <v>0</v>
@@ -21788,13 +21779,13 @@
         <v>0</v>
       </c>
       <c r="DJ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM42">
         <v>0</v>
@@ -21851,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="EE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF42">
         <v>0</v>
@@ -21878,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="EN42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO42">
         <v>0</v>
@@ -21899,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="EU42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV42">
         <v>1</v>
@@ -21908,7 +21899,7 @@
         <v>0</v>
       </c>
       <c r="EX42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY42">
         <v>0</v>
@@ -21917,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="FA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB42">
         <v>0</v>
@@ -21932,7 +21923,7 @@
         <v>0</v>
       </c>
       <c r="FF42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:162" x14ac:dyDescent="0.35">
@@ -22009,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -22030,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -22048,7 +22039,7 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -22066,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43">
         <v>0</v>
@@ -22201,7 +22192,7 @@
         <v>0</v>
       </c>
       <c r="CK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL43">
         <v>0</v>
@@ -22252,7 +22243,7 @@
         <v>0</v>
       </c>
       <c r="DB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC43">
         <v>0</v>
@@ -22309,7 +22300,7 @@
         <v>1</v>
       </c>
       <c r="DU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV43">
         <v>0</v>
@@ -22318,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="DX43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY43">
         <v>0</v>
@@ -22351,10 +22342,10 @@
         <v>0</v>
       </c>
       <c r="EI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK43">
         <v>0</v>
@@ -22390,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="EV43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW43">
         <v>0</v>
@@ -22518,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -22557,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -22725,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="CW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX44">
         <v>0</v>
@@ -22740,7 +22731,7 @@
         <v>0</v>
       </c>
       <c r="DB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC44">
         <v>0</v>
@@ -22770,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="DL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM44">
         <v>0</v>
@@ -22806,7 +22797,7 @@
         <v>0</v>
       </c>
       <c r="DX44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY44">
         <v>0</v>
@@ -22839,7 +22830,7 @@
         <v>0</v>
       </c>
       <c r="EI44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ44">
         <v>0</v>
@@ -22875,10 +22866,10 @@
         <v>0</v>
       </c>
       <c r="EU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW44">
         <v>0</v>
@@ -22902,7 +22893,7 @@
         <v>0</v>
       </c>
       <c r="FD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE44">
         <v>0</v>
@@ -22964,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -23033,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -23177,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="CK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL45">
         <v>0</v>
@@ -23186,7 +23177,7 @@
         <v>0</v>
       </c>
       <c r="CN45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO45">
         <v>0</v>
@@ -23258,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="DL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM45">
         <v>0</v>
@@ -23306,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="EB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC45">
         <v>0</v>
@@ -23315,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="EE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF45">
         <v>0</v>
@@ -23342,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="EN45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO45">
         <v>0</v>
@@ -23366,13 +23357,13 @@
         <v>0</v>
       </c>
       <c r="EV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW45">
         <v>0</v>
       </c>
       <c r="EX45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY45">
         <v>0</v>
@@ -23473,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -23512,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -23521,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -23575,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="BG46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH46">
         <v>0</v>
@@ -23584,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK46">
         <v>0</v>
@@ -23596,7 +23587,7 @@
         <v>0</v>
       </c>
       <c r="BN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO46">
         <v>0</v>
@@ -23659,13 +23650,13 @@
         <v>0</v>
       </c>
       <c r="CI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ46">
         <v>0</v>
       </c>
       <c r="CK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL46">
         <v>0</v>
@@ -23701,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="CW46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX46">
         <v>0</v>
@@ -23716,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="DB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC46">
         <v>0</v>
@@ -23743,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="DK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL46">
         <v>0</v>
@@ -23794,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="EB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC46">
         <v>0</v>
@@ -23803,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="EE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF46">
         <v>0</v>
@@ -23815,10 +23806,10 @@
         <v>0</v>
       </c>
       <c r="EI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK46">
         <v>0</v>
@@ -23860,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="EX46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY46">
         <v>0</v>
@@ -24009,7 +24000,7 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -24018,10 +24009,10 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47">
         <v>0</v>
@@ -24153,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="CK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL47">
         <v>0</v>
@@ -24162,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="CN47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO47">
         <v>0</v>
@@ -24189,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="CW47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX47">
         <v>0</v>
@@ -24234,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="DL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM47">
         <v>0</v>
@@ -24267,7 +24258,7 @@
         <v>0</v>
       </c>
       <c r="DW47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX47">
         <v>0</v>
@@ -24303,10 +24294,10 @@
         <v>0</v>
       </c>
       <c r="EI47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK47">
         <v>0</v>
@@ -24339,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="EU47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV47">
         <v>0</v>
@@ -24348,7 +24339,7 @@
         <v>0</v>
       </c>
       <c r="EX47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY47">
         <v>0</v>
@@ -24366,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="FD47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE47">
         <v>0</v>
@@ -24419,7 +24410,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -24641,10 +24632,10 @@
         <v>0</v>
       </c>
       <c r="CK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM48">
         <v>0</v>
@@ -24886,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -24907,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -24982,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -25039,7 +25030,7 @@
         <v>0</v>
       </c>
       <c r="BG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49">
         <v>0</v>
@@ -25048,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK49">
         <v>0</v>
@@ -25060,7 +25051,7 @@
         <v>0</v>
       </c>
       <c r="BN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49">
         <v>0</v>
@@ -25123,22 +25114,22 @@
         <v>0</v>
       </c>
       <c r="CI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ49">
         <v>0</v>
       </c>
       <c r="CK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL49">
         <v>0</v>
       </c>
       <c r="CM49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO49">
         <v>0</v>
@@ -25207,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="DK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL49">
         <v>0</v>
@@ -25258,13 +25249,13 @@
         <v>0</v>
       </c>
       <c r="EB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC49">
         <v>0</v>
       </c>
       <c r="ED49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE49">
         <v>1</v>
@@ -25374,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -25395,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -25470,7 +25461,7 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -25539,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="BK50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL50">
         <v>0</v>
@@ -25620,10 +25611,10 @@
         <v>1</v>
       </c>
       <c r="CL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN50">
         <v>0</v>
@@ -25668,7 +25659,7 @@
         <v>0</v>
       </c>
       <c r="DB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC50">
         <v>0</v>
@@ -25731,7 +25722,7 @@
         <v>0</v>
       </c>
       <c r="DW50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX50">
         <v>0</v>
@@ -25746,7 +25737,7 @@
         <v>0</v>
       </c>
       <c r="EB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC50">
         <v>0</v>
@@ -25755,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="EE50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF50">
         <v>0</v>
@@ -25770,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="EJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK50">
         <v>0</v>
@@ -25883,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -25961,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51">
         <v>0</v>
@@ -25973,7 +25964,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51">
         <v>0</v>
@@ -26036,7 +26027,7 @@
         <v>0</v>
       </c>
       <c r="BN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51">
         <v>0</v>
@@ -26069,13 +26060,13 @@
         <v>0</v>
       </c>
       <c r="BY51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ51">
         <v>0</v>
       </c>
       <c r="CA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB51">
         <v>0</v>
@@ -26099,22 +26090,22 @@
         <v>0</v>
       </c>
       <c r="CI51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ51">
         <v>0</v>
       </c>
       <c r="CK51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM51">
         <v>0</v>
       </c>
       <c r="CN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO51">
         <v>0</v>
@@ -26183,7 +26174,7 @@
         <v>0</v>
       </c>
       <c r="DK51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL51">
         <v>0</v>
@@ -26234,13 +26225,13 @@
         <v>0</v>
       </c>
       <c r="EB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC51">
         <v>0</v>
       </c>
       <c r="ED51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE51">
         <v>1</v>
@@ -26294,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="EV51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW51">
         <v>0</v>
@@ -26350,7 +26341,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -26371,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -26401,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -26446,10 +26437,10 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52">
         <v>0</v>
@@ -26524,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="BN52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO52">
         <v>0</v>
@@ -26557,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="BY52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ52">
         <v>0</v>
@@ -26587,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="CI52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ52">
         <v>0</v>
@@ -26599,10 +26590,10 @@
         <v>0</v>
       </c>
       <c r="CM52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO52">
         <v>0</v>
@@ -26623,7 +26614,7 @@
         <v>0</v>
       </c>
       <c r="CU52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV52">
         <v>0</v>
@@ -26671,10 +26662,10 @@
         <v>0</v>
       </c>
       <c r="DK52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM52">
         <v>0</v>
@@ -26779,10 +26770,10 @@
         <v>0</v>
       </c>
       <c r="EU52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW52">
         <v>0</v>
@@ -26838,7 +26829,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -26859,7 +26850,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -26889,7 +26880,7 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -26934,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -26946,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53">
         <v>0</v>
@@ -27000,10 +26991,10 @@
         <v>0</v>
       </c>
       <c r="BJ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53">
         <v>0</v>
@@ -27012,7 +27003,7 @@
         <v>0</v>
       </c>
       <c r="BN53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO53">
         <v>0</v>
@@ -27045,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="BY53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ53">
         <v>0</v>
@@ -27075,7 +27066,7 @@
         <v>0</v>
       </c>
       <c r="CI53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ53">
         <v>0</v>
@@ -27084,13 +27075,13 @@
         <v>1</v>
       </c>
       <c r="CL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO53">
         <v>0</v>
@@ -27159,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="DK53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL53">
         <v>0</v>
@@ -27210,7 +27201,7 @@
         <v>0</v>
       </c>
       <c r="EB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC53">
         <v>0</v>
@@ -27219,7 +27210,7 @@
         <v>0</v>
       </c>
       <c r="EE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF53">
         <v>0</v>
@@ -27267,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="EU53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW53">
         <v>0</v>
@@ -27300,1470 +27291,6 @@
         <v>0</v>
       </c>
       <c r="FF53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:162" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>1</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>1</v>
-      </c>
-      <c r="AS54">
-        <v>1</v>
-      </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <v>0</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>0</v>
-      </c>
-      <c r="BK54">
-        <v>0</v>
-      </c>
-      <c r="BL54">
-        <v>0</v>
-      </c>
-      <c r="BM54">
-        <v>0</v>
-      </c>
-      <c r="BN54">
-        <v>1</v>
-      </c>
-      <c r="BO54">
-        <v>0</v>
-      </c>
-      <c r="BP54">
-        <v>0</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54">
-        <v>0</v>
-      </c>
-      <c r="BS54">
-        <v>0</v>
-      </c>
-      <c r="BT54">
-        <v>0</v>
-      </c>
-      <c r="BU54">
-        <v>0</v>
-      </c>
-      <c r="BV54">
-        <v>0</v>
-      </c>
-      <c r="BW54">
-        <v>1</v>
-      </c>
-      <c r="BX54">
-        <v>0</v>
-      </c>
-      <c r="BY54">
-        <v>1</v>
-      </c>
-      <c r="BZ54">
-        <v>0</v>
-      </c>
-      <c r="CA54">
-        <v>1</v>
-      </c>
-      <c r="CB54">
-        <v>0</v>
-      </c>
-      <c r="CC54">
-        <v>0</v>
-      </c>
-      <c r="CD54">
-        <v>0</v>
-      </c>
-      <c r="CE54">
-        <v>0</v>
-      </c>
-      <c r="CF54">
-        <v>0</v>
-      </c>
-      <c r="CG54">
-        <v>0</v>
-      </c>
-      <c r="CH54">
-        <v>0</v>
-      </c>
-      <c r="CI54">
-        <v>1</v>
-      </c>
-      <c r="CJ54">
-        <v>0</v>
-      </c>
-      <c r="CK54">
-        <v>1</v>
-      </c>
-      <c r="CL54">
-        <v>0</v>
-      </c>
-      <c r="CM54">
-        <v>0</v>
-      </c>
-      <c r="CN54">
-        <v>1</v>
-      </c>
-      <c r="CO54">
-        <v>0</v>
-      </c>
-      <c r="CP54">
-        <v>0</v>
-      </c>
-      <c r="CQ54">
-        <v>0</v>
-      </c>
-      <c r="CR54">
-        <v>0</v>
-      </c>
-      <c r="CS54">
-        <v>0</v>
-      </c>
-      <c r="CT54">
-        <v>0</v>
-      </c>
-      <c r="CU54">
-        <v>0</v>
-      </c>
-      <c r="CV54">
-        <v>0</v>
-      </c>
-      <c r="CW54">
-        <v>0</v>
-      </c>
-      <c r="CX54">
-        <v>0</v>
-      </c>
-      <c r="CY54">
-        <v>0</v>
-      </c>
-      <c r="CZ54">
-        <v>0</v>
-      </c>
-      <c r="DA54">
-        <v>0</v>
-      </c>
-      <c r="DB54">
-        <v>0</v>
-      </c>
-      <c r="DC54">
-        <v>0</v>
-      </c>
-      <c r="DD54">
-        <v>0</v>
-      </c>
-      <c r="DE54">
-        <v>0</v>
-      </c>
-      <c r="DF54">
-        <v>0</v>
-      </c>
-      <c r="DG54">
-        <v>0</v>
-      </c>
-      <c r="DH54">
-        <v>0</v>
-      </c>
-      <c r="DI54">
-        <v>0</v>
-      </c>
-      <c r="DJ54">
-        <v>0</v>
-      </c>
-      <c r="DK54">
-        <v>1</v>
-      </c>
-      <c r="DL54">
-        <v>0</v>
-      </c>
-      <c r="DM54">
-        <v>0</v>
-      </c>
-      <c r="DN54">
-        <v>0</v>
-      </c>
-      <c r="DO54">
-        <v>0</v>
-      </c>
-      <c r="DP54">
-        <v>0</v>
-      </c>
-      <c r="DQ54">
-        <v>0</v>
-      </c>
-      <c r="DR54">
-        <v>0</v>
-      </c>
-      <c r="DS54">
-        <v>0</v>
-      </c>
-      <c r="DT54">
-        <v>1</v>
-      </c>
-      <c r="DU54">
-        <v>0</v>
-      </c>
-      <c r="DV54">
-        <v>0</v>
-      </c>
-      <c r="DW54">
-        <v>0</v>
-      </c>
-      <c r="DX54">
-        <v>0</v>
-      </c>
-      <c r="DY54">
-        <v>0</v>
-      </c>
-      <c r="DZ54">
-        <v>0</v>
-      </c>
-      <c r="EA54">
-        <v>0</v>
-      </c>
-      <c r="EB54">
-        <v>0</v>
-      </c>
-      <c r="EC54">
-        <v>0</v>
-      </c>
-      <c r="ED54">
-        <v>1</v>
-      </c>
-      <c r="EE54">
-        <v>1</v>
-      </c>
-      <c r="EF54">
-        <v>0</v>
-      </c>
-      <c r="EG54">
-        <v>0</v>
-      </c>
-      <c r="EH54">
-        <v>0</v>
-      </c>
-      <c r="EI54">
-        <v>0</v>
-      </c>
-      <c r="EJ54">
-        <v>0</v>
-      </c>
-      <c r="EK54">
-        <v>0</v>
-      </c>
-      <c r="EL54">
-        <v>0</v>
-      </c>
-      <c r="EM54">
-        <v>0</v>
-      </c>
-      <c r="EN54">
-        <v>0</v>
-      </c>
-      <c r="EO54">
-        <v>0</v>
-      </c>
-      <c r="EP54">
-        <v>0</v>
-      </c>
-      <c r="EQ54">
-        <v>0</v>
-      </c>
-      <c r="ER54">
-        <v>0</v>
-      </c>
-      <c r="ES54">
-        <v>0</v>
-      </c>
-      <c r="ET54">
-        <v>0</v>
-      </c>
-      <c r="EU54">
-        <v>0</v>
-      </c>
-      <c r="EV54">
-        <v>1</v>
-      </c>
-      <c r="EW54">
-        <v>0</v>
-      </c>
-      <c r="EX54">
-        <v>0</v>
-      </c>
-      <c r="EY54">
-        <v>0</v>
-      </c>
-      <c r="EZ54">
-        <v>0</v>
-      </c>
-      <c r="FA54">
-        <v>0</v>
-      </c>
-      <c r="FB54">
-        <v>0</v>
-      </c>
-      <c r="FC54">
-        <v>0</v>
-      </c>
-      <c r="FD54">
-        <v>0</v>
-      </c>
-      <c r="FE54">
-        <v>0</v>
-      </c>
-      <c r="FF54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:162" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>1</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>1</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <v>0</v>
-      </c>
-      <c r="BK55">
-        <v>0</v>
-      </c>
-      <c r="BL55">
-        <v>0</v>
-      </c>
-      <c r="BM55">
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <v>1</v>
-      </c>
-      <c r="BO55">
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <v>0</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55">
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <v>0</v>
-      </c>
-      <c r="BT55">
-        <v>0</v>
-      </c>
-      <c r="BU55">
-        <v>0</v>
-      </c>
-      <c r="BV55">
-        <v>0</v>
-      </c>
-      <c r="BW55">
-        <v>1</v>
-      </c>
-      <c r="BX55">
-        <v>0</v>
-      </c>
-      <c r="BY55">
-        <v>1</v>
-      </c>
-      <c r="BZ55">
-        <v>0</v>
-      </c>
-      <c r="CA55">
-        <v>0</v>
-      </c>
-      <c r="CB55">
-        <v>0</v>
-      </c>
-      <c r="CC55">
-        <v>0</v>
-      </c>
-      <c r="CD55">
-        <v>0</v>
-      </c>
-      <c r="CE55">
-        <v>0</v>
-      </c>
-      <c r="CF55">
-        <v>0</v>
-      </c>
-      <c r="CG55">
-        <v>0</v>
-      </c>
-      <c r="CH55">
-        <v>0</v>
-      </c>
-      <c r="CI55">
-        <v>1</v>
-      </c>
-      <c r="CJ55">
-        <v>0</v>
-      </c>
-      <c r="CK55">
-        <v>0</v>
-      </c>
-      <c r="CL55">
-        <v>0</v>
-      </c>
-      <c r="CM55">
-        <v>0</v>
-      </c>
-      <c r="CN55">
-        <v>1</v>
-      </c>
-      <c r="CO55">
-        <v>0</v>
-      </c>
-      <c r="CP55">
-        <v>0</v>
-      </c>
-      <c r="CQ55">
-        <v>0</v>
-      </c>
-      <c r="CR55">
-        <v>0</v>
-      </c>
-      <c r="CS55">
-        <v>0</v>
-      </c>
-      <c r="CT55">
-        <v>0</v>
-      </c>
-      <c r="CU55">
-        <v>1</v>
-      </c>
-      <c r="CV55">
-        <v>0</v>
-      </c>
-      <c r="CW55">
-        <v>0</v>
-      </c>
-      <c r="CX55">
-        <v>0</v>
-      </c>
-      <c r="CY55">
-        <v>0</v>
-      </c>
-      <c r="CZ55">
-        <v>0</v>
-      </c>
-      <c r="DA55">
-        <v>0</v>
-      </c>
-      <c r="DB55">
-        <v>0</v>
-      </c>
-      <c r="DC55">
-        <v>0</v>
-      </c>
-      <c r="DD55">
-        <v>0</v>
-      </c>
-      <c r="DE55">
-        <v>0</v>
-      </c>
-      <c r="DF55">
-        <v>0</v>
-      </c>
-      <c r="DG55">
-        <v>0</v>
-      </c>
-      <c r="DH55">
-        <v>0</v>
-      </c>
-      <c r="DI55">
-        <v>0</v>
-      </c>
-      <c r="DJ55">
-        <v>0</v>
-      </c>
-      <c r="DK55">
-        <v>1</v>
-      </c>
-      <c r="DL55">
-        <v>1</v>
-      </c>
-      <c r="DM55">
-        <v>0</v>
-      </c>
-      <c r="DN55">
-        <v>0</v>
-      </c>
-      <c r="DO55">
-        <v>0</v>
-      </c>
-      <c r="DP55">
-        <v>0</v>
-      </c>
-      <c r="DQ55">
-        <v>0</v>
-      </c>
-      <c r="DR55">
-        <v>0</v>
-      </c>
-      <c r="DS55">
-        <v>0</v>
-      </c>
-      <c r="DT55">
-        <v>1</v>
-      </c>
-      <c r="DU55">
-        <v>0</v>
-      </c>
-      <c r="DV55">
-        <v>0</v>
-      </c>
-      <c r="DW55">
-        <v>0</v>
-      </c>
-      <c r="DX55">
-        <v>0</v>
-      </c>
-      <c r="DY55">
-        <v>0</v>
-      </c>
-      <c r="DZ55">
-        <v>0</v>
-      </c>
-      <c r="EA55">
-        <v>0</v>
-      </c>
-      <c r="EB55">
-        <v>0</v>
-      </c>
-      <c r="EC55">
-        <v>0</v>
-      </c>
-      <c r="ED55">
-        <v>1</v>
-      </c>
-      <c r="EE55">
-        <v>1</v>
-      </c>
-      <c r="EF55">
-        <v>0</v>
-      </c>
-      <c r="EG55">
-        <v>0</v>
-      </c>
-      <c r="EH55">
-        <v>0</v>
-      </c>
-      <c r="EI55">
-        <v>0</v>
-      </c>
-      <c r="EJ55">
-        <v>0</v>
-      </c>
-      <c r="EK55">
-        <v>0</v>
-      </c>
-      <c r="EL55">
-        <v>0</v>
-      </c>
-      <c r="EM55">
-        <v>0</v>
-      </c>
-      <c r="EN55">
-        <v>0</v>
-      </c>
-      <c r="EO55">
-        <v>0</v>
-      </c>
-      <c r="EP55">
-        <v>0</v>
-      </c>
-      <c r="EQ55">
-        <v>0</v>
-      </c>
-      <c r="ER55">
-        <v>0</v>
-      </c>
-      <c r="ES55">
-        <v>0</v>
-      </c>
-      <c r="ET55">
-        <v>0</v>
-      </c>
-      <c r="EU55">
-        <v>1</v>
-      </c>
-      <c r="EV55">
-        <v>1</v>
-      </c>
-      <c r="EW55">
-        <v>0</v>
-      </c>
-      <c r="EX55">
-        <v>0</v>
-      </c>
-      <c r="EY55">
-        <v>0</v>
-      </c>
-      <c r="EZ55">
-        <v>0</v>
-      </c>
-      <c r="FA55">
-        <v>0</v>
-      </c>
-      <c r="FB55">
-        <v>0</v>
-      </c>
-      <c r="FC55">
-        <v>0</v>
-      </c>
-      <c r="FD55">
-        <v>0</v>
-      </c>
-      <c r="FE55">
-        <v>0</v>
-      </c>
-      <c r="FF55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:162" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>1</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>0</v>
-      </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>0</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>0</v>
-      </c>
-      <c r="BJ56">
-        <v>1</v>
-      </c>
-      <c r="BK56">
-        <v>0</v>
-      </c>
-      <c r="BL56">
-        <v>0</v>
-      </c>
-      <c r="BM56">
-        <v>0</v>
-      </c>
-      <c r="BN56">
-        <v>1</v>
-      </c>
-      <c r="BO56">
-        <v>0</v>
-      </c>
-      <c r="BP56">
-        <v>0</v>
-      </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
-      <c r="BR56">
-        <v>0</v>
-      </c>
-      <c r="BS56">
-        <v>0</v>
-      </c>
-      <c r="BT56">
-        <v>0</v>
-      </c>
-      <c r="BU56">
-        <v>0</v>
-      </c>
-      <c r="BV56">
-        <v>0</v>
-      </c>
-      <c r="BW56">
-        <v>1</v>
-      </c>
-      <c r="BX56">
-        <v>0</v>
-      </c>
-      <c r="BY56">
-        <v>1</v>
-      </c>
-      <c r="BZ56">
-        <v>0</v>
-      </c>
-      <c r="CA56">
-        <v>0</v>
-      </c>
-      <c r="CB56">
-        <v>0</v>
-      </c>
-      <c r="CC56">
-        <v>0</v>
-      </c>
-      <c r="CD56">
-        <v>0</v>
-      </c>
-      <c r="CE56">
-        <v>0</v>
-      </c>
-      <c r="CF56">
-        <v>0</v>
-      </c>
-      <c r="CG56">
-        <v>0</v>
-      </c>
-      <c r="CH56">
-        <v>0</v>
-      </c>
-      <c r="CI56">
-        <v>1</v>
-      </c>
-      <c r="CJ56">
-        <v>0</v>
-      </c>
-      <c r="CK56">
-        <v>1</v>
-      </c>
-      <c r="CL56">
-        <v>0</v>
-      </c>
-      <c r="CM56">
-        <v>0</v>
-      </c>
-      <c r="CN56">
-        <v>1</v>
-      </c>
-      <c r="CO56">
-        <v>0</v>
-      </c>
-      <c r="CP56">
-        <v>0</v>
-      </c>
-      <c r="CQ56">
-        <v>0</v>
-      </c>
-      <c r="CR56">
-        <v>0</v>
-      </c>
-      <c r="CS56">
-        <v>0</v>
-      </c>
-      <c r="CT56">
-        <v>0</v>
-      </c>
-      <c r="CU56">
-        <v>0</v>
-      </c>
-      <c r="CV56">
-        <v>0</v>
-      </c>
-      <c r="CW56">
-        <v>0</v>
-      </c>
-      <c r="CX56">
-        <v>0</v>
-      </c>
-      <c r="CY56">
-        <v>0</v>
-      </c>
-      <c r="CZ56">
-        <v>0</v>
-      </c>
-      <c r="DA56">
-        <v>0</v>
-      </c>
-      <c r="DB56">
-        <v>0</v>
-      </c>
-      <c r="DC56">
-        <v>0</v>
-      </c>
-      <c r="DD56">
-        <v>0</v>
-      </c>
-      <c r="DE56">
-        <v>0</v>
-      </c>
-      <c r="DF56">
-        <v>0</v>
-      </c>
-      <c r="DG56">
-        <v>0</v>
-      </c>
-      <c r="DH56">
-        <v>0</v>
-      </c>
-      <c r="DI56">
-        <v>0</v>
-      </c>
-      <c r="DJ56">
-        <v>0</v>
-      </c>
-      <c r="DK56">
-        <v>1</v>
-      </c>
-      <c r="DL56">
-        <v>0</v>
-      </c>
-      <c r="DM56">
-        <v>0</v>
-      </c>
-      <c r="DN56">
-        <v>0</v>
-      </c>
-      <c r="DO56">
-        <v>0</v>
-      </c>
-      <c r="DP56">
-        <v>0</v>
-      </c>
-      <c r="DQ56">
-        <v>0</v>
-      </c>
-      <c r="DR56">
-        <v>0</v>
-      </c>
-      <c r="DS56">
-        <v>0</v>
-      </c>
-      <c r="DT56">
-        <v>1</v>
-      </c>
-      <c r="DU56">
-        <v>0</v>
-      </c>
-      <c r="DV56">
-        <v>0</v>
-      </c>
-      <c r="DW56">
-        <v>0</v>
-      </c>
-      <c r="DX56">
-        <v>0</v>
-      </c>
-      <c r="DY56">
-        <v>0</v>
-      </c>
-      <c r="DZ56">
-        <v>0</v>
-      </c>
-      <c r="EA56">
-        <v>0</v>
-      </c>
-      <c r="EB56">
-        <v>0</v>
-      </c>
-      <c r="EC56">
-        <v>0</v>
-      </c>
-      <c r="ED56">
-        <v>0</v>
-      </c>
-      <c r="EE56">
-        <v>0</v>
-      </c>
-      <c r="EF56">
-        <v>0</v>
-      </c>
-      <c r="EG56">
-        <v>0</v>
-      </c>
-      <c r="EH56">
-        <v>0</v>
-      </c>
-      <c r="EI56">
-        <v>0</v>
-      </c>
-      <c r="EJ56">
-        <v>0</v>
-      </c>
-      <c r="EK56">
-        <v>0</v>
-      </c>
-      <c r="EL56">
-        <v>0</v>
-      </c>
-      <c r="EM56">
-        <v>0</v>
-      </c>
-      <c r="EN56">
-        <v>0</v>
-      </c>
-      <c r="EO56">
-        <v>0</v>
-      </c>
-      <c r="EP56">
-        <v>0</v>
-      </c>
-      <c r="EQ56">
-        <v>0</v>
-      </c>
-      <c r="ER56">
-        <v>0</v>
-      </c>
-      <c r="ES56">
-        <v>0</v>
-      </c>
-      <c r="ET56">
-        <v>0</v>
-      </c>
-      <c r="EU56">
-        <v>1</v>
-      </c>
-      <c r="EV56">
-        <v>1</v>
-      </c>
-      <c r="EW56">
-        <v>0</v>
-      </c>
-      <c r="EX56">
-        <v>0</v>
-      </c>
-      <c r="EY56">
-        <v>0</v>
-      </c>
-      <c r="EZ56">
-        <v>0</v>
-      </c>
-      <c r="FA56">
-        <v>0</v>
-      </c>
-      <c r="FB56">
-        <v>0</v>
-      </c>
-      <c r="FC56">
-        <v>0</v>
-      </c>
-      <c r="FD56">
-        <v>0</v>
-      </c>
-      <c r="FE56">
-        <v>0</v>
-      </c>
-      <c r="FF56">
         <v>0</v>
       </c>
     </row>
@@ -28789,822 +27316,822 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -29613,12 +28140,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001A0558F238722E4A87858A261B385A9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="768d137f02b0c7c8bbf88fa481a1dff7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93de73cf-449c-470b-a45d-fc882adeee99" xmlns:ns4="5d1b4fd4-c07b-4c84-89e3-bdde29d7bf6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e00029edc1283bd127c32b637f6064b9" ns3:_="" ns4:_="">
     <xsd:import namespace="93de73cf-449c-470b-a45d-fc882adeee99"/>
@@ -29841,16 +28377,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012DBB55-05A5-41C1-B7F3-DCE77FB5308C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DDC254C-C018-4DBA-8FE4-46EA0052AA6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -29859,7 +28394,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B357E56-671C-4DF9-80CB-256F15600ED4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29876,12 +28411,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012DBB55-05A5-41C1-B7F3-DCE77FB5308C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>